--- a/data.xlsx
+++ b/data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="F1-F7" sheetId="5" r:id="rId1"/>
     <sheet name="L1-L2" sheetId="9" r:id="rId2"/>
     <sheet name="f2_friction" sheetId="10" r:id="rId3"/>
+    <sheet name="moody" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>F1_x</t>
   </si>
@@ -88,17 +89,133 @@
   <si>
     <t>Horizontal_y</t>
   </si>
+  <si>
+    <t>tube1_x</t>
+  </si>
+  <si>
+    <t>tube1_y</t>
+  </si>
+  <si>
+    <t>tube2_x</t>
+  </si>
+  <si>
+    <t>tube2_y</t>
+  </si>
+  <si>
+    <t>tube3_x</t>
+  </si>
+  <si>
+    <t>tube3_y</t>
+  </si>
+  <si>
+    <t>tube4_x</t>
+  </si>
+  <si>
+    <t>tube4_y</t>
+  </si>
+  <si>
+    <t>tube5_x</t>
+  </si>
+  <si>
+    <t>tube5_y</t>
+  </si>
+  <si>
+    <t>tube6_x</t>
+  </si>
+  <si>
+    <t>tube6_y</t>
+  </si>
+  <si>
+    <t>tube7_x</t>
+  </si>
+  <si>
+    <t>tube7_y</t>
+  </si>
+  <si>
+    <t>tube8_x</t>
+  </si>
+  <si>
+    <t>tube8_y</t>
+  </si>
+  <si>
+    <t>tube9_x</t>
+  </si>
+  <si>
+    <t>tube_9y</t>
+  </si>
+  <si>
+    <t>tube10_x</t>
+  </si>
+  <si>
+    <t>tube10_y</t>
+  </si>
+  <si>
+    <t>tube11_x</t>
+  </si>
+  <si>
+    <t>tube11_y</t>
+  </si>
+  <si>
+    <t>tube12_x</t>
+  </si>
+  <si>
+    <t>tube12_y</t>
+  </si>
+  <si>
+    <t>tube13_x</t>
+  </si>
+  <si>
+    <t>tube13_y</t>
+  </si>
+  <si>
+    <t>tube14_x</t>
+  </si>
+  <si>
+    <t>tube14_y</t>
+  </si>
+  <si>
+    <t>tube15_x</t>
+  </si>
+  <si>
+    <t>tube15_y</t>
+  </si>
+  <si>
+    <t>tube16_x</t>
+  </si>
+  <si>
+    <t>tube16_y</t>
+  </si>
+  <si>
+    <t>tube17_x</t>
+  </si>
+  <si>
+    <t>tube17_y</t>
+  </si>
+  <si>
+    <t>tube18_x</t>
+  </si>
+  <si>
+    <t>tube18_y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,42 +269,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
     <cellStyle name="Обычный 3" xfId="2"/>
     <cellStyle name="Обычный 4" xfId="3"/>
+    <cellStyle name="Обычный 5" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1778,7 +1905,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -2652,4 +2779,4953 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>92139665.867320508</v>
+      </c>
+      <c r="B2" s="12">
+        <v>5.9691703575366264E-3</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>6.725840857176835E-3</v>
+      </c>
+      <c r="E2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="F2" s="12">
+        <v>7.4229908176639478E-3</v>
+      </c>
+      <c r="G2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="H2" s="12">
+        <v>8.1077918873353472E-3</v>
+      </c>
+      <c r="I2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="J2" s="12">
+        <v>8.9947534224943861E-3</v>
+      </c>
+      <c r="K2" s="12">
+        <v>101373761.44432065</v>
+      </c>
+      <c r="L2" s="12">
+        <v>1.0510331743403442E-2</v>
+      </c>
+      <c r="M2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="N2" s="12">
+        <v>1.1904831987086629E-2</v>
+      </c>
+      <c r="O2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1.3624982126424171E-2</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1.6595892526473758E-2</v>
+      </c>
+      <c r="S2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="T2" s="12">
+        <v>1.9493281381689109E-2</v>
+      </c>
+      <c r="U2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="V2" s="12">
+        <v>2.3376884108175101E-2</v>
+      </c>
+      <c r="W2" s="12">
+        <v>98644855.014997959</v>
+      </c>
+      <c r="X2" s="12">
+        <v>3.014753495894228E-2</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>3.7686456507543584E-2</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>98644855.014997959</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>4.3356593385722383E-2</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>4.86012730698763E-2</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="AF2" s="12">
+        <v>5.7086311564630746E-2</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="AH2" s="12">
+        <v>6.4325275310875965E-2</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>7.1362215297999049E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>67322266.113199711</v>
+      </c>
+      <c r="B3" s="12">
+        <v>6.1909841514885648E-3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>70135098.246537283</v>
+      </c>
+      <c r="D3" s="12">
+        <v>6.86811935226154E-3</v>
+      </c>
+      <c r="E3" s="12">
+        <v>81492301.354285643</v>
+      </c>
+      <c r="F3" s="12">
+        <v>7.4623548827797434E-3</v>
+      </c>
+      <c r="G3" s="12">
+        <v>79298589.076694384</v>
+      </c>
+      <c r="H3" s="12">
+        <v>8.1508941544713512E-3</v>
+      </c>
+      <c r="I3" s="12">
+        <v>62030511.051010564</v>
+      </c>
+      <c r="J3" s="12">
+        <v>9.0436364065877382E-3</v>
+      </c>
+      <c r="K3" s="12">
+        <v>48522733.456557758</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1.0568765657312443E-2</v>
+      </c>
+      <c r="M3" s="12">
+        <v>76118246.779330179</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1.1968354926614119E-2</v>
+      </c>
+      <c r="O3" s="12">
+        <v>64622245.180076413</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1.3627836376810943E-2</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>64622245.180076413</v>
+      </c>
+      <c r="R3" s="12">
+        <v>1.6599369142606027E-2</v>
+      </c>
+      <c r="S3" s="12">
+        <v>49189320.06051442</v>
+      </c>
+      <c r="T3" s="12">
+        <v>1.960140086391688E-2</v>
+      </c>
+      <c r="U3" s="12">
+        <v>62030511.051010564</v>
+      </c>
+      <c r="V3" s="12">
+        <v>2.338224041049616E-2</v>
+      </c>
+      <c r="W3" s="12">
+        <v>57154705.618192457</v>
+      </c>
+      <c r="X3" s="12">
+        <v>3.0312367150529113E-2</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>56380176.491314836</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>3.769681877884181E-2</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>38477843.012495436</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>4.3601922392190198E-2</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>52662154.784053192</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>4.8616227606966135E-2</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>28114011.076177508</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>5.7121073807709685E-2</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>42334033.249671102</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>6.4351807459272922E-2</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>51948506.234503083</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>7.1384640607885977E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>42915601.876280978</v>
+      </c>
+      <c r="B4" s="12">
+        <v>6.5561845905815121E-3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>49865063.974229187</v>
+      </c>
+      <c r="D4" s="12">
+        <v>7.0498612693889948E-3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>64622245.180076413</v>
+      </c>
+      <c r="F4" s="12">
+        <v>7.5020259076519586E-3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>59542720.784883037</v>
+      </c>
+      <c r="H4" s="12">
+        <v>8.1944401127142814E-3</v>
+      </c>
+      <c r="I4" s="12">
+        <v>35940400.519900508</v>
+      </c>
+      <c r="J4" s="12">
+        <v>9.1404056927838536E-3</v>
+      </c>
+      <c r="K4" s="12">
+        <v>28114011.076177508</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1.0626550574322571E-2</v>
+      </c>
+      <c r="M4" s="12">
+        <v>51244528.657482795</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1.1970627062717351E-2</v>
+      </c>
+      <c r="O4" s="12">
+        <v>39542292.173754826</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1.363104812321197E-2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>39006436.784407325</v>
+      </c>
+      <c r="R4" s="12">
+        <v>1.6603389887909902E-2</v>
+      </c>
+      <c r="S4" s="12">
+        <v>25206835.214831214</v>
+      </c>
+      <c r="T4" s="12">
+        <v>1.9506173092596009E-2</v>
+      </c>
+      <c r="U4" s="12">
+        <v>39006436.784407325</v>
+      </c>
+      <c r="V4" s="12">
+        <v>2.3387444850788381E-2</v>
+      </c>
+      <c r="W4" s="12">
+        <v>33115364.950413052</v>
+      </c>
+      <c r="X4" s="12">
+        <v>3.0163326196778435E-2</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>28114011.076177508</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3.7905656056008798E-2</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>20823823.109705318</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>4.3614767648643124E-2</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>27357202.761217535</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>4.8631505075092167E-2</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>7586980.008278993</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>5.7156979617078482E-2</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>20541630.115148447</v>
+      </c>
+      <c r="AH4" s="12">
+        <v>6.4709158319393181E-2</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>19450584.656611979</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>7.1418291786664506E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>21991897.90202203</v>
+      </c>
+      <c r="B5" s="12">
+        <v>7.2005964536876162E-3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>31356479.782371715</v>
+      </c>
+      <c r="D5" s="12">
+        <v>7.3123599294860247E-3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>54118998.050236039</v>
+      </c>
+      <c r="F5" s="12">
+        <v>7.5809596113274478E-3</v>
+      </c>
+      <c r="G5" s="12">
+        <v>47865180.067535304</v>
+      </c>
+      <c r="H5" s="12">
+        <v>8.2379490912398486E-3</v>
+      </c>
+      <c r="I5" s="12">
+        <v>24195892.080157235</v>
+      </c>
+      <c r="J5" s="12">
+        <v>9.2375452766313305E-3</v>
+      </c>
+      <c r="K5" s="12">
+        <v>14604808.796676958</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.068521096012579E-2</v>
+      </c>
+      <c r="M5" s="12">
+        <v>33570291.066247903</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1.197305637486734E-2</v>
+      </c>
+      <c r="O5" s="12">
+        <v>25206835.214831214</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1.3704948144538752E-2</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>24195892.080157235</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1.6607194191998614E-2</v>
+      </c>
+      <c r="S5" s="12">
+        <v>9567610.3403821774</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1.9616803661164448E-2</v>
+      </c>
+      <c r="U5" s="12">
+        <v>25553116.998346008</v>
+      </c>
+      <c r="V5" s="12">
+        <v>2.3392191085353668E-2</v>
+      </c>
+      <c r="W5" s="12">
+        <v>19717789.289319467</v>
+      </c>
+      <c r="X5" s="12">
+        <v>3.0327847686484256E-2</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>14805444.028942456</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>3.7917319568168018E-2</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>11116924.401503902</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>4.3627902266574953E-2</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>16289222.854666088</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>4.8643603142080299E-2</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>2252651.4338642485</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>5.7190287455683476E-2</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>10817665.046407159</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>6.4729069228038491E-2</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>9967360.4284054786</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>7.1441202354443623E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>13641686.658440735</v>
+      </c>
+      <c r="B6" s="12">
+        <v>7.7050294898847746E-3</v>
+      </c>
+      <c r="C6" s="12">
+        <v>21693875.800496008</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7.5842850955073742E-3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>47865180.067535304</v>
+      </c>
+      <c r="F6" s="12">
+        <v>7.6208620714955594E-3</v>
+      </c>
+      <c r="G6" s="12">
+        <v>37956412.452574685</v>
+      </c>
+      <c r="H6" s="12">
+        <v>8.3248438894949987E-3</v>
+      </c>
+      <c r="I6" s="12">
+        <v>15008835.510672541</v>
+      </c>
+      <c r="J6" s="12">
+        <v>9.3846715642362608E-3</v>
+      </c>
+      <c r="K6" s="12">
+        <v>8936669.0211821254</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1.0855465261158109E-2</v>
+      </c>
+      <c r="M6" s="12">
+        <v>21109892.762819983</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1.197572134862197E-2</v>
+      </c>
+      <c r="O6" s="12">
+        <v>16739847.116519464</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1.3707639691474259E-2</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>16969812.682044432</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1.6610020810728394E-2</v>
+      </c>
+      <c r="S6" s="12">
+        <v>5249026.7766913604</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1.9622454385592569E-2</v>
+      </c>
+      <c r="U6" s="12">
+        <v>16969812.682044432</v>
+      </c>
+      <c r="V6" s="12">
+        <v>2.3396785132669028E-2</v>
+      </c>
+      <c r="W6" s="12">
+        <v>12742078.138634872</v>
+      </c>
+      <c r="X6" s="12">
+        <v>3.0334200962414147E-2</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>8347335.4738405906</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>3.7927745317593096E-2</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>5394235.5959087666</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>4.3643040534972415E-2</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>10104288.182987386</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>4.8654748761111866E-2</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>798640.53194156196</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>5.7218745468186769E-2</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>6099018.6454036385</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>6.4411650218710925E-2</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>6529617.8833115976</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>7.1455700590833421E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>7484165.4291836908</v>
+      </c>
+      <c r="B7" s="12">
+        <v>8.4182740034643346E-3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>14019069.608857794</v>
+      </c>
+      <c r="D7" s="12">
+        <v>7.9486728106970047E-3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>40085508.937838435</v>
+      </c>
+      <c r="F7" s="12">
+        <v>7.6611751491797711E-3</v>
+      </c>
+      <c r="G7" s="12">
+        <v>31787243.011918142</v>
+      </c>
+      <c r="H7" s="12">
+        <v>8.3688809125086264E-3</v>
+      </c>
+      <c r="I7" s="12">
+        <v>9567610.3403821774</v>
+      </c>
+      <c r="J7" s="12">
+        <v>9.58363410257837E-3</v>
+      </c>
+      <c r="K7" s="12">
+        <v>5543461.4647766165</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1.1028360143539775E-2</v>
+      </c>
+      <c r="M7" s="12">
+        <v>12231045.464126287</v>
+      </c>
+      <c r="N7" s="12">
+        <v>1.2103864714242634E-2</v>
+      </c>
+      <c r="O7" s="12">
+        <v>12065297.064905874</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1.3709793309609119E-2</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>11269644.422726024</v>
+      </c>
+      <c r="R7" s="12">
+        <v>1.6613282891703839E-2</v>
+      </c>
+      <c r="S7" s="12">
+        <v>2283597.4907376119</v>
+      </c>
+      <c r="T7" s="12">
+        <v>1.9630291037108834E-2</v>
+      </c>
+      <c r="U7" s="12">
+        <v>12399070.850949785</v>
+      </c>
+      <c r="V7" s="12">
+        <v>2.3400307846615561E-2</v>
+      </c>
+      <c r="W7" s="12">
+        <v>7796865.850988037</v>
+      </c>
+      <c r="X7" s="12">
+        <v>3.0341349988721421E-2</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>4902876.8227134328</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>3.7937428937449086E-2</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>2689839.0308205499</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>4.3657612507116778E-2</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>7382744.1367008518</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>4.8662074415514969E-2</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>324537.06963628426</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>5.7243470493573555E-2</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>3485876.1523791188</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>6.4428939113231692E-2</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>3941322.7826113147</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>7.1473008789122022E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>4836435.7333296025</v>
+      </c>
+      <c r="B8" s="12">
+        <v>8.9611970760109794E-3</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10526461.531071361</v>
+      </c>
+      <c r="D8" s="12">
+        <v>8.2439367981020605E-3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>33115364.950413052</v>
+      </c>
+      <c r="F8" s="12">
+        <v>7.7418340418336723E-3</v>
+      </c>
+      <c r="G8" s="12">
+        <v>26986472.999962088</v>
+      </c>
+      <c r="H8" s="12">
+        <v>8.4130958136015288E-3</v>
+      </c>
+      <c r="I8" s="12">
+        <v>6619319.2562539978</v>
+      </c>
+      <c r="J8" s="12">
+        <v>9.837361863939029E-3</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3731983.8791995924</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1.1261875319175593E-2</v>
+      </c>
+      <c r="M8" s="12">
+        <v>8234216.9757855535</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1.2106162576244096E-2</v>
+      </c>
+      <c r="O8" s="12">
+        <v>9183892.5945243333</v>
+      </c>
+      <c r="P8" s="12">
+        <v>1.3782947334150196E-2</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>7282697.2497768179</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1.6703241608435455E-2</v>
+      </c>
+      <c r="S8" s="12">
+        <v>1093048.0509592756</v>
+      </c>
+      <c r="T8" s="12">
+        <v>1.9842158577246864E-2</v>
+      </c>
+      <c r="U8" s="12">
+        <v>8234216.9757855535</v>
+      </c>
+      <c r="V8" s="12">
+        <v>2.3283728209558312E-2</v>
+      </c>
+      <c r="W8" s="12">
+        <v>4456275.724577589</v>
+      </c>
+      <c r="X8" s="12">
+        <v>3.0349493987482382E-2</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>3041279.5493306913</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>3.7749661278454201E-2</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>1645910.0200045044</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>4.366790153436733E-2</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>4162404.174174143</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>4.8675454543650062E-2</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>143129.98985725042</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>5.7265957060525362E-2</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>1435986.8982900581</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>6.4791807438191101E-2</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>1762113.5670805799</v>
+      </c>
+      <c r="AJ8" s="12">
+        <v>7.1500617021717838E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>3000065.8020380433</v>
+      </c>
+      <c r="B9" s="12">
+        <v>9.6890350840086979E-3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>8122631.3973840075</v>
+      </c>
+      <c r="D9" s="12">
+        <v>8.5057902228994307E-3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>28114011.076177508</v>
+      </c>
+      <c r="F9" s="12">
+        <v>7.8232397138865793E-3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>22294014.116274342</v>
+      </c>
+      <c r="H9" s="12">
+        <v>8.5016711272972237E-3</v>
+      </c>
+      <c r="I9" s="12">
+        <v>4642466.0636257026</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1.0045461501044094E-2</v>
+      </c>
+      <c r="K9" s="12">
+        <v>2314968.6726088361</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1.1620804996498911E-2</v>
+      </c>
+      <c r="M9" s="12">
+        <v>5394235.5959087666</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1.229865528093009E-2</v>
+      </c>
+      <c r="O9" s="12">
+        <v>6441132.0940261027</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1.3857035919957784E-2</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>4902876.8227134328</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1.6706412640589186E-2</v>
+      </c>
+      <c r="S9" s="12">
+        <v>668835.0934038813</v>
+      </c>
+      <c r="T9" s="12">
+        <v>2.0053949807542187E-2</v>
+      </c>
+      <c r="U9" s="12">
+        <v>5934837.5895083966</v>
+      </c>
+      <c r="V9" s="12">
+        <v>2.3287386334549041E-2</v>
+      </c>
+      <c r="W9" s="12">
+        <v>3041279.5493306913</v>
+      </c>
+      <c r="X9" s="12">
+        <v>3.0355056998872466E-2</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>1714678.7775069082</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>3.7956555139338613E-2</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>725892.68379482953</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>4.3685055302002854E-2</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>2133004.3998749265</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>4.8691069343060729E-2</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>58162.572055311153</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>5.7588859927967175E-2</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>735864.7176119464</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>6.4812592268781513E-2</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>735864.7176119464</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>7.1530576993477257E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>1455713.9326442613</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1.0864920005844577E-2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>6353845.4154765587</v>
+      </c>
+      <c r="D10" s="12">
+        <v>8.7759034928355534E-3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>23544556.620961491</v>
+      </c>
+      <c r="F10" s="12">
+        <v>7.9055531173538203E-3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>18670501.204785895</v>
+      </c>
+      <c r="H10" s="12">
+        <v>8.5911227498014948E-3</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3083059.4751934051</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1.0473451964606084E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1378395.3329889942</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1.2179606042911999E-2</v>
+      </c>
+      <c r="M10" s="12">
+        <v>3783252.4348402992</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1.2364765232235026E-2</v>
+      </c>
+      <c r="O10" s="12">
+        <v>4456275.724577589</v>
+      </c>
+      <c r="P10" s="12">
+        <v>1.3859485170138224E-2</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>3438637.4765167711</v>
+      </c>
+      <c r="R10" s="12">
+        <v>1.6796215964686091E-2</v>
+      </c>
+      <c r="S10" s="12">
+        <v>333515.04720794101</v>
+      </c>
+      <c r="T10" s="12">
+        <v>2.048152264207332E-2</v>
+      </c>
+      <c r="U10" s="12">
+        <v>4336316.0890429718</v>
+      </c>
+      <c r="V10" s="12">
+        <v>2.3290892576973109E-2</v>
+      </c>
+      <c r="W10" s="12">
+        <v>1992342.2531070593</v>
+      </c>
+      <c r="X10" s="12">
+        <v>3.0361217236627311E-2</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>890750.01163487846</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>3.7968482845165637E-2</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>450274.94143982889</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>4.3695064778117229E-2</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>1093048.0509592756</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>4.8706689151607155E-2</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>27462.352633995462</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>5.8210791098551581E-2</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>357061.67552769638</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>6.4499407691533492E-2</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>264472.72679436853</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>7.1565702311438065E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>866771.68234101299</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1.1870205249349626E-2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4770895.0170365404</v>
+      </c>
+      <c r="D11" s="12">
+        <v>9.1018960604110407E-3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>20263261.24480534</v>
+      </c>
+      <c r="F11" s="12">
+        <v>8.0302031481024813E-3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>15424039.19986132</v>
+      </c>
+      <c r="H11" s="12">
+        <v>8.6815723785019835E-3</v>
+      </c>
+      <c r="I11" s="12">
+        <v>2133004.3998749265</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1.0919462683297337E-2</v>
+      </c>
+      <c r="K11" s="12">
+        <v>855025.66935635183</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1.276502706832598E-2</v>
+      </c>
+      <c r="M11" s="12">
+        <v>2314968.6726088361</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1.2692871483919087E-2</v>
+      </c>
+      <c r="O11" s="12">
+        <v>2689839.0308205499</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1.4007510231225349E-2</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>2546971.2719172938</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1.6798634910085812E-2</v>
+      </c>
+      <c r="S11" s="12">
+        <v>195892.83312099171</v>
+      </c>
+      <c r="T11" s="12">
+        <v>2.1025424660768125E-2</v>
+      </c>
+      <c r="U11" s="12">
+        <v>3000065.8020380433</v>
+      </c>
+      <c r="V11" s="12">
+        <v>2.3416243262685477E-2</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1202591.6452169959</v>
+      </c>
+      <c r="X11" s="12">
+        <v>3.0368571415004531E-2</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>530376.7923190688</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>3.7977928270475615E-2</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>283144.87082706776</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>4.3704790465293068E-2</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>650830.54902728752</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>4.8718805922149541E-2</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>17035.03768549805</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>5.8831736334721392E-2</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>141190.37097766603</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>6.4863946641184791E-2</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>108948.03889477218</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>7.159615820540495E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>616262.4202657165</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1.2635176126221359E-2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3995467.1553950547</v>
+      </c>
+      <c r="D12" s="12">
+        <v>9.3420136059121535E-3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>16739847.116519464</v>
+      </c>
+      <c r="F12" s="12">
+        <v>8.1569787654627145E-3</v>
+      </c>
+      <c r="G12" s="12">
+        <v>12742078.138634872</v>
+      </c>
+      <c r="H12" s="12">
+        <v>8.7729742849862163E-3</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1416527.1938525941</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1.1503497092577546E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>591546.65338679345</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1.351749332466576E-2</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1397331.1966239105</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1.3097580217537949E-2</v>
+      </c>
+      <c r="O12" s="12">
+        <v>1912437.5484690734</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1.415600427462807E-2</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>1886521.2469396987</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1.6888491765527511E-2</v>
+      </c>
+      <c r="S12" s="12">
+        <v>128329.39628772164</v>
+      </c>
+      <c r="T12" s="12">
+        <v>2.169496249408135E-2</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1579899.2962927211</v>
+      </c>
+      <c r="V12" s="12">
+        <v>2.342344840477863E-2</v>
+      </c>
+      <c r="W12" s="12">
+        <v>687337.71461275138</v>
+      </c>
+      <c r="X12" s="12">
+        <v>3.0376722720337614E-2</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>283144.87082706776</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>3.7989365350266882E-2</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>139277.03674605646</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>4.3947199078981848E-2</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>403713.51563772454</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>4.8729968772255342E-2</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>9604.3843124457999</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>6.0395242698994829E-2</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>70404.668813464741</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>6.5223287573434832E-2</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>37076.615665746824</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>7.2005991194988211E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>456460.64497876662</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1.3310279534290497E-2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3300727.7817895277</v>
+      </c>
+      <c r="D13" s="12">
+        <v>9.6384299523888696E-3</v>
+      </c>
+      <c r="E13" s="12">
+        <v>14019069.608857794</v>
+      </c>
+      <c r="F13" s="12">
+        <v>8.242803654990697E-3</v>
+      </c>
+      <c r="G13" s="12">
+        <v>10383812.715534879</v>
+      </c>
+      <c r="H13" s="12">
+        <v>8.9115346219553072E-3</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1093048.0509592756</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1.1868884429308647E-2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>414881.82652693137</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1.4166386216127895E-2</v>
+      </c>
+      <c r="M13" s="12">
+        <v>902986.79186000011</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1.3585085333266951E-2</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1378395.3329889942</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1.43804313295222E-2</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1359716.0777604913</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1.6979051550847394E-2</v>
+      </c>
+      <c r="S13" s="12">
+        <v>86394.257670282619</v>
+      </c>
+      <c r="T13" s="12">
+        <v>2.2385528161332744E-2</v>
+      </c>
+      <c r="U13" s="12">
+        <v>966738.92101751559</v>
+      </c>
+      <c r="V13" s="12">
+        <v>2.3550899888694625E-2</v>
+      </c>
+      <c r="W13" s="12">
+        <v>414881.82652693137</v>
+      </c>
+      <c r="X13" s="12">
+        <v>3.0542208227554411E-2</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>157474.25726733741</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>3.8197822986064653E-2</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>77460.516420148444</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>4.4188348914875962E-2</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>247031.92755615356</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>4.8741453229325334E-2</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>6122.4607728839892</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>6.199664820352515E-2</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>31050.442232894435</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>6.5588483054526484E-2</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>17269.058465246912</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>7.2784096670546791E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>315800.77255836217</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1.4241976572708004E-2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2840720.6989339688</v>
+      </c>
+      <c r="D14" s="12">
+        <v>9.8413550461675225E-3</v>
+      </c>
+      <c r="E14" s="12">
+        <v>11740508.221491063</v>
+      </c>
+      <c r="F14" s="12">
+        <v>8.3728808635684625E-3</v>
+      </c>
+      <c r="G14" s="12">
+        <v>8578255.752843624</v>
+      </c>
+      <c r="H14" s="12">
+        <v>9.0522241266277319E-3</v>
+      </c>
+      <c r="I14" s="12">
+        <v>735864.7176119464</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1.2634100981720462E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>333515.04720794101</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1.4692134545016933E-2</v>
+      </c>
+      <c r="M14" s="12">
+        <v>575622.65646025026</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1.416416087358833E-2</v>
+      </c>
+      <c r="O14" s="12">
+        <v>1078235.6651130384</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1.4532212834071872E-2</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>915391.67625387956</v>
+      </c>
+      <c r="R14" s="12">
+        <v>1.7159496276957998E-2</v>
+      </c>
+      <c r="S14" s="12">
+        <v>50744.384824906541</v>
+      </c>
+      <c r="T14" s="12">
+        <v>2.3954358765316562E-2</v>
+      </c>
+      <c r="U14" s="12">
+        <v>552536.78440405114</v>
+      </c>
+      <c r="V14" s="12">
+        <v>2.3679819861077169E-2</v>
+      </c>
+      <c r="W14" s="12">
+        <v>233911.10602627459</v>
+      </c>
+      <c r="X14" s="12">
+        <v>3.0709600335619258E-2</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>74353.891704437396</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>3.8610340559658105E-2</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>34631.577880200326</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>4.489918932785316E-2</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>153235.16712224425</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>4.8752621268566838E-2</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>4352.9831104876503</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>6.3637183133407382E-2</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>15273.501410143581</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>6.6295504315734735E-2</v>
+      </c>
+      <c r="AI14" s="12">
+        <v>8379.4192095488779</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>7.4336908903811158E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>243684.28677852263</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1.5002637470705162E-2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2411691.7724972875</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1.0100914175277489E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>10243096.998268303</v>
+      </c>
+      <c r="F15" s="12">
+        <v>8.5048437676398317E-3</v>
+      </c>
+      <c r="G15" s="12">
+        <v>7382744.1367008518</v>
+      </c>
+      <c r="H15" s="12">
+        <v>9.1949541796648836E-3</v>
+      </c>
+      <c r="I15" s="12">
+        <v>516099.44265874336</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1.3309495423271691E-2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>247031.92755615356</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1.5477142209656229E-2</v>
+      </c>
+      <c r="M15" s="12">
+        <v>398242.61217678449</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1.4844193519359462E-2</v>
+      </c>
+      <c r="O15" s="12">
+        <v>832009.01284584007</v>
+      </c>
+      <c r="P15" s="12">
+        <v>1.4762121084953781E-2</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>607911.17098303419</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1.7432224849896868E-2</v>
+      </c>
+      <c r="S15" s="12">
+        <v>37585.959916621781</v>
+      </c>
+      <c r="T15" s="12">
+        <v>2.5103604984670999E-2</v>
+      </c>
+      <c r="U15" s="12">
+        <v>342741.39111065335</v>
+      </c>
+      <c r="V15" s="12">
+        <v>2.3932416863430242E-2</v>
+      </c>
+      <c r="W15" s="12">
+        <v>139277.03674605646</v>
+      </c>
+      <c r="X15" s="12">
+        <v>3.1037794794499512E-2</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>48049.154198170057</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>3.9021437894352189E-2</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>21482.144744117002</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>4.5614298249591186E-2</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>82929.337107163359</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>4.9020781472657135E-2</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>2774.875251967128</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>6.7042174878173044E-2</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>9345.8414141010999</v>
+      </c>
+      <c r="AH15" s="12">
+        <v>6.7351832991975252E-2</v>
+      </c>
+      <c r="AI15" s="12">
+        <v>5641.2148989930756</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>7.5517906084479572E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>173256.08509182319</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1.6052586545769333E-2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2047458.3114467291</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1.0421273538716407E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>8936669.0211821254</v>
+      </c>
+      <c r="F16" s="12">
+        <v>8.638886506398295E-3</v>
+      </c>
+      <c r="G16" s="12">
+        <v>6529617.8833115976</v>
+      </c>
+      <c r="H16" s="12">
+        <v>9.2914570028751475E-3</v>
+      </c>
+      <c r="I16" s="12">
+        <v>366939.41220097826</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1.4093872208758327E-2</v>
+      </c>
+      <c r="K16" s="12">
+        <v>178049.03292934046</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1.6389158993633943E-2</v>
+      </c>
+      <c r="M16" s="12">
+        <v>283144.87082706776</v>
+      </c>
+      <c r="N16" s="12">
+        <v>1.5556671412040214E-2</v>
+      </c>
+      <c r="O16" s="12">
+        <v>591546.65338679345</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1.5152751481608681E-2</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>432216.25390984921</v>
+      </c>
+      <c r="R16" s="12">
+        <v>1.7708708504828616E-2</v>
+      </c>
+      <c r="S16" s="12">
+        <v>27839.619846184658</v>
+      </c>
+      <c r="T16" s="12">
+        <v>2.6307988011720445E-2</v>
+      </c>
+      <c r="U16" s="12">
+        <v>227614.39263584118</v>
+      </c>
+      <c r="V16" s="12">
+        <v>2.4186916741775279E-2</v>
+      </c>
+      <c r="W16" s="12">
+        <v>71371.86100862571</v>
+      </c>
+      <c r="X16" s="12">
+        <v>3.153502319077451E-2</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>31477.001236580996</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>3.9848201889948663E-2</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>13882.244246482191</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>4.6823474239281619E-2</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>44272.330130267495</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>4.954726262830713E-2</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>2261.3097025385441</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>6.8811718473293482E-2</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>5127.3588793926756</v>
+      </c>
+      <c r="AH16" s="12">
+        <v>6.9502512313503642E-2</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>3268.5128568731684</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>7.8332860425217879E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>126590.34690964517</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1.6998401092636835E-2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1691442.3940446309</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1.0751934139127638E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>8012557.9653521562</v>
+      </c>
+      <c r="F17" s="12">
+        <v>8.729496150335532E-3</v>
+      </c>
+      <c r="G17" s="12">
+        <v>5696815.5107593574</v>
+      </c>
+      <c r="H17" s="12">
+        <v>9.3890341001325386E-3</v>
+      </c>
+      <c r="I17" s="12">
+        <v>290977.77664169169</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1.4769563426622584E-2</v>
+      </c>
+      <c r="K17" s="12">
+        <v>143129.98985725042</v>
+      </c>
+      <c r="L17" s="12">
+        <v>1.6997399713697764E-2</v>
+      </c>
+      <c r="M17" s="12">
+        <v>193238.20121697415</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1.6559540384671261E-2</v>
+      </c>
+      <c r="O17" s="12">
+        <v>469088.14986613154</v>
+      </c>
+      <c r="P17" s="12">
+        <v>1.5472381381665005E-2</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>290977.77664169169</v>
+      </c>
+      <c r="R17" s="12">
+        <v>1.8177786473528804E-2</v>
+      </c>
+      <c r="S17" s="12">
+        <v>21191.030536946226</v>
+      </c>
+      <c r="T17" s="12">
+        <v>2.7713273383177129E-2</v>
+      </c>
+      <c r="U17" s="12">
+        <v>135527.80227336628</v>
+      </c>
+      <c r="V17" s="12">
+        <v>2.4572624048731961E-2</v>
+      </c>
+      <c r="W17" s="12">
+        <v>42496.747919340844</v>
+      </c>
+      <c r="X17" s="12">
+        <v>3.2372247209629383E-2</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>17746.788851357724</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>4.0907203733873812E-2</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>10143.124924675709</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>4.7813039485749873E-2</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>22998.814177881806</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>5.034068492325143E-2</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>7.0259543373685979E-2</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>3358.9328361826692</v>
+      </c>
+      <c r="AH17" s="12">
+        <v>7.2088993882424124E-2</v>
+      </c>
+      <c r="AI17" s="12">
+        <v>2261.3097025385441</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>8.0825191439251445E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>99024.005399836577</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1.7999353697940614E-2</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1475711.9693905322</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1.097823081038557E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>7184006.143223593</v>
+      </c>
+      <c r="F18" s="12">
+        <v>8.8669634967785127E-3</v>
+      </c>
+      <c r="G18" s="12">
+        <v>4970230.6541663967</v>
+      </c>
+      <c r="H18" s="12">
+        <v>9.537012343997165E-3</v>
+      </c>
+      <c r="I18" s="12">
+        <v>233911.10602627459</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1.5397414839054175E-2</v>
+      </c>
+      <c r="K18" s="12">
+        <v>106015.2385373017</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1.8092435403732707E-2</v>
+      </c>
+      <c r="M18" s="12">
+        <v>151158.60843972774</v>
+      </c>
+      <c r="N18" s="12">
+        <v>1.7174329200815363E-2</v>
+      </c>
+      <c r="O18" s="12">
+        <v>357061.67552769638</v>
+      </c>
+      <c r="P18" s="12">
+        <v>1.5881286668206075E-2</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>195892.83312099171</v>
+      </c>
+      <c r="R18" s="12">
+        <v>1.8756397994460008E-2</v>
+      </c>
+      <c r="S18" s="12">
+        <v>15483.3228837139</v>
+      </c>
+      <c r="T18" s="12">
+        <v>2.934613280009352E-2</v>
+      </c>
+      <c r="U18" s="12">
+        <v>95052.557275798274</v>
+      </c>
+      <c r="V18" s="12">
+        <v>2.5223021854172859E-2</v>
+      </c>
+      <c r="W18" s="12">
+        <v>27462.352633995462</v>
+      </c>
+      <c r="X18" s="12">
+        <v>3.3403334182217949E-2</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>12111.671120852887</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>4.2428700093178208E-2</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>7411.120378727559</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>4.9333024041654898E-2</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>15696.026803790031</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>5.1140117175398604E-2</v>
+      </c>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="12">
+        <v>2522.1129698356676</v>
+      </c>
+      <c r="AH18" s="12">
+        <v>7.4379741354417328E-2</v>
+      </c>
+      <c r="AI18" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="AJ18" s="12">
+        <v>8.209798249174223E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>65761.794256636131</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1.9561922352003467E-2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1202591.6452169959</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1.1326637463811852E-2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>6353845.4154765587</v>
+      </c>
+      <c r="F19" s="12">
+        <v>8.9600239943102879E-3</v>
+      </c>
+      <c r="G19" s="12">
+        <v>4219585.6778757358</v>
+      </c>
+      <c r="H19" s="12">
+        <v>9.687449659139459E-3</v>
+      </c>
+      <c r="I19" s="12">
+        <v>159637.57789840631</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1.647531565937406E-2</v>
+      </c>
+      <c r="K19" s="12">
+        <v>88784.264175712073</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1.8763520299010374E-2</v>
+      </c>
+      <c r="M19" s="12">
+        <v>116639.92266282896</v>
+      </c>
+      <c r="N19" s="12">
+        <v>1.7997939918166738E-2</v>
+      </c>
+      <c r="O19" s="12">
+        <v>303135.29431717581</v>
+      </c>
+      <c r="P19" s="12">
+        <v>1.6215753450252883E-2</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>133691.20405757535</v>
+      </c>
+      <c r="R19" s="12">
+        <v>1.955526499836252E-2</v>
+      </c>
+      <c r="S19" s="12">
+        <v>12278.056588974077</v>
+      </c>
+      <c r="T19" s="12">
+        <v>3.0913098722902217E-2</v>
+      </c>
+      <c r="U19" s="12">
+        <v>67581.02530648098</v>
+      </c>
+      <c r="V19" s="12">
+        <v>2.5756421278324247E-2</v>
+      </c>
+      <c r="W19" s="12">
+        <v>19525.344730584107</v>
+      </c>
+      <c r="X19" s="12">
+        <v>3.4465682992110371E-2</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>8611.2270514424163</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>4.3778088714187931E-2</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>4989.3341833365439</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>5.1434538414423414E-2</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>10566.920934046684</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>5.2222961160253843E-2</v>
+      </c>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AH19" s="12">
+        <v>7.6343955681858755E-2</v>
+      </c>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>43080.551857346865</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2.1482145808211266E-2</v>
+      </c>
+      <c r="C20" s="12">
+        <v>980019.60758169566</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1.1746919060940952E-2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5619615.4010604909</v>
+      </c>
+      <c r="F20" s="12">
+        <v>9.1011811415995045E-3</v>
+      </c>
+      <c r="G20" s="12">
+        <v>3783252.4348402992</v>
+      </c>
+      <c r="H20" s="12">
+        <v>9.8400023352054958E-3</v>
+      </c>
+      <c r="I20" s="12">
+        <v>135527.80227336628</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1.6997844763720921E-2</v>
+      </c>
+      <c r="K20" s="12">
+        <v>69450.583474831757</v>
+      </c>
+      <c r="L20" s="12">
+        <v>1.9868412131225126E-2</v>
+      </c>
+      <c r="M20" s="12">
+        <v>86394.257670282619</v>
+      </c>
+      <c r="N20" s="12">
+        <v>1.8959578320006061E-2</v>
+      </c>
+      <c r="O20" s="12">
+        <v>257353.31725242265</v>
+      </c>
+      <c r="P20" s="12">
+        <v>1.6557264247726772E-2</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>95052.557275798274</v>
+      </c>
+      <c r="R20" s="12">
+        <v>2.0493860549456375E-2</v>
+      </c>
+      <c r="S20" s="12">
+        <v>9094.2582987169681</v>
+      </c>
+      <c r="T20" s="12">
+        <v>3.3248017238864939E-2</v>
+      </c>
+      <c r="U20" s="12">
+        <v>52148.174997031136</v>
+      </c>
+      <c r="V20" s="12">
+        <v>2.630006772783932E-2</v>
+      </c>
+      <c r="W20" s="12">
+        <v>15483.3228837139</v>
+      </c>
+      <c r="X20" s="12">
+        <v>3.537585002288262E-2</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>5641.2148989930756</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>4.6359910821573112E-2</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>3746.3280953657054</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>5.3622766121777056E-2</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>6644.7612059937628</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>5.3887017778767421E-2</v>
+      </c>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>30629.663722154426</v>
+      </c>
+      <c r="B21" s="12">
+        <v>2.3467801117427196E-2</v>
+      </c>
+      <c r="C21" s="12">
+        <v>809611.94764809252</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1.2056894003261657E-2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>5038509.766587141</v>
+      </c>
+      <c r="F21" s="12">
+        <v>9.1966395993576706E-3</v>
+      </c>
+      <c r="G21" s="12">
+        <v>3300727.7817895277</v>
+      </c>
+      <c r="H21" s="12">
+        <v>9.9950881778660301E-3</v>
+      </c>
+      <c r="I21" s="12">
+        <v>103161.38698904366</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1.8092672263082497E-2</v>
+      </c>
+      <c r="K21" s="12">
+        <v>55073.332801073484</v>
+      </c>
+      <c r="L21" s="12">
+        <v>2.0820947487806118E-2</v>
+      </c>
+      <c r="M21" s="12">
+        <v>71371.86100862571</v>
+      </c>
+      <c r="N21" s="12">
+        <v>1.9765287731703121E-2</v>
+      </c>
+      <c r="O21" s="12">
+        <v>190619.54342407428</v>
+      </c>
+      <c r="P21" s="12">
+        <v>1.7172418180936407E-2</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>72352.340117256332</v>
+      </c>
+      <c r="R21" s="12">
+        <v>2.1254993033157733E-2</v>
+      </c>
+      <c r="S21" s="12">
+        <v>7113.8906311903211</v>
+      </c>
+      <c r="T21" s="12">
+        <v>3.52058301705084E-2</v>
+      </c>
+      <c r="U21" s="12">
+        <v>38625.736067675352</v>
+      </c>
+      <c r="V21" s="12">
+        <v>2.7135973671860998E-2</v>
+      </c>
+      <c r="W21" s="12">
+        <v>10282.467264140176</v>
+      </c>
+      <c r="X21" s="12">
+        <v>3.7461903095870455E-2</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>3902.8556850780169</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>4.9348203737395055E-2</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>2663.5863471266525</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>5.7078464954171827E-2</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>4660.3098000715217</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>5.5890551683849161E-2</v>
+      </c>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21777.258166024829</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2.5372220155173243E-2</v>
+      </c>
+      <c r="C22" s="12">
+        <v>706352.19142694958</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1.2374724479001786E-2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4517494.3223344563</v>
+      </c>
+      <c r="F22" s="12">
+        <v>9.3414632661700508E-3</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2840720.6989339688</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1.0205522264728555E-2</v>
+      </c>
+      <c r="I22" s="12">
+        <v>82929.337107163359</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1.8861788418172251E-2</v>
+      </c>
+      <c r="K22" s="12">
+        <v>46122.099010577491</v>
+      </c>
+      <c r="L22" s="12">
+        <v>2.1705615874604508E-2</v>
+      </c>
+      <c r="M22" s="12">
+        <v>56596.878777619604</v>
+      </c>
+      <c r="N22" s="12">
+        <v>2.0820674911372287E-2</v>
+      </c>
+      <c r="O22" s="12">
+        <v>161830.61739422195</v>
+      </c>
+      <c r="P22" s="12">
+        <v>1.7534076752369312E-2</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>55829.90901319703</v>
+      </c>
+      <c r="R22" s="12">
+        <v>2.215897399820221E-2</v>
+      </c>
+      <c r="S22" s="12">
+        <v>5797.2731911839064</v>
+      </c>
+      <c r="T22" s="12">
+        <v>3.7085194951926387E-2</v>
+      </c>
+      <c r="U22" s="12">
+        <v>27090.197939512302</v>
+      </c>
+      <c r="V22" s="12">
+        <v>2.843860722940408E-2</v>
+      </c>
+      <c r="W22" s="12">
+        <v>7616.1412492728969</v>
+      </c>
+      <c r="X22" s="12">
+        <v>3.9259193974100416E-2</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>2930.5268735051359</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>5.2255103954544704E-2</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>6.0440327514303206E-2</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>3268.5128568731684</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>5.8573518178929244E-2</v>
+      </c>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>15696.026803790031</v>
+      </c>
+      <c r="B23" s="12">
+        <v>2.743100380642613E-2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>607911.17098303419</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1.270101638710216E-2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>3887912.1445800141</v>
+      </c>
+      <c r="F23" s="12">
+        <v>9.5877753257831971E-3</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2444822.6642237087</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1.0420386778229209E-2</v>
+      </c>
+      <c r="I23" s="12">
+        <v>67581.02530648098</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1.9868672240993313E-2</v>
+      </c>
+      <c r="K23" s="12">
+        <v>37585.959916621781</v>
+      </c>
+      <c r="L23" s="12">
+        <v>2.2628169475839094E-2</v>
+      </c>
+      <c r="M23" s="12">
+        <v>47398.01849471766</v>
+      </c>
+      <c r="N23" s="12">
+        <v>2.14811615106392E-2</v>
+      </c>
+      <c r="O23" s="12">
+        <v>143129.98985725042</v>
+      </c>
+      <c r="P23" s="12">
+        <v>1.7903000439943348E-2</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>42496.747919340844</v>
+      </c>
+      <c r="R23" s="12">
+        <v>2.3221779935023314E-2</v>
+      </c>
+      <c r="S23" s="12">
+        <v>4921.7214713660678</v>
+      </c>
+      <c r="T23" s="12">
+        <v>3.8861868801699749E-2</v>
+      </c>
+      <c r="U23" s="12">
+        <v>21777.258166024829</v>
+      </c>
+      <c r="V23" s="12">
+        <v>2.9341330867976041E-2</v>
+      </c>
+      <c r="W23" s="12">
+        <v>5489.357580218255</v>
+      </c>
+      <c r="X23" s="12">
+        <v>4.1788964303390866E-2</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>2388.1537910251295</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>5.4759611624306086E-2</v>
+      </c>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="12">
+        <v>2355.7908446919173</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>6.1703936621147655E-2</v>
+      </c>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>13882.244246482191</v>
+      </c>
+      <c r="B24" s="12">
+        <v>2.8447730167270181E-2</v>
+      </c>
+      <c r="C24" s="12">
+        <v>523189.41781634226</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1.3103754501105304E-2</v>
+      </c>
+      <c r="E24" s="12">
+        <v>3346071.9074377329</v>
+      </c>
+      <c r="F24" s="12">
+        <v>9.7389496296464758E-3</v>
+      </c>
+      <c r="G24" s="12">
+        <v>2104099.0977201508</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1.0584689201227031E-2</v>
+      </c>
+      <c r="I24" s="12">
+        <v>51441.491618788801</v>
+      </c>
+      <c r="J24" s="12">
+        <v>2.1038916489505372E-2</v>
+      </c>
+      <c r="K24" s="12">
+        <v>29805.135904812985</v>
+      </c>
+      <c r="L24" s="12">
+        <v>2.3960474734041691E-2</v>
+      </c>
+      <c r="M24" s="12">
+        <v>38625.736067675352</v>
+      </c>
+      <c r="N24" s="12">
+        <v>2.2510720916081736E-2</v>
+      </c>
+      <c r="O24" s="12">
+        <v>121513.32549725442</v>
+      </c>
+      <c r="P24" s="12">
+        <v>1.8375180051475266E-2</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>34162.269789329737</v>
+      </c>
+      <c r="R24" s="12">
+        <v>2.4208933509590008E-2</v>
+      </c>
+      <c r="S24" s="12">
+        <v>4235.8040354716068</v>
+      </c>
+      <c r="T24" s="12">
+        <v>4.0512553713561432E-2</v>
+      </c>
+      <c r="U24" s="12">
+        <v>17506.294132239651</v>
+      </c>
+      <c r="V24" s="12">
+        <v>3.0430257531125798E-2</v>
+      </c>
+      <c r="W24" s="12">
+        <v>4412.7827141373173</v>
+      </c>
+      <c r="X24" s="12">
+        <v>4.3792132467456661E-2</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>2083.5632041443137</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>5.6495621176097813E-2</v>
+      </c>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="12">
+        <v>2000</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>6.3660931157939957E-2</v>
+      </c>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>11625.921495217572</v>
+      </c>
+      <c r="B25" s="12">
+        <v>2.9810796342854131E-2</v>
+      </c>
+      <c r="C25" s="12">
+        <v>450274.94143982889</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1.3449269188458521E-2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3041279.5493306913</v>
+      </c>
+      <c r="F25" s="12">
+        <v>9.8410329552629655E-3</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1860956.1488707992</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1.075144149268707E-2</v>
+      </c>
+      <c r="I25" s="12">
+        <v>37585.959916621781</v>
+      </c>
+      <c r="J25" s="12">
+        <v>2.2511015617961302E-2</v>
+      </c>
+      <c r="K25" s="12">
+        <v>23635.052244907962</v>
+      </c>
+      <c r="L25" s="12">
+        <v>2.5371223690614564E-2</v>
+      </c>
+      <c r="M25" s="12">
+        <v>31050.442232894435</v>
+      </c>
+      <c r="N25" s="12">
+        <v>2.3712548011467216E-2</v>
+      </c>
+      <c r="O25" s="12">
+        <v>104578.5783489255</v>
+      </c>
+      <c r="P25" s="12">
+        <v>1.8762046496898888E-2</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>28609.773723714305</v>
+      </c>
+      <c r="R25" s="12">
+        <v>2.5106891647703099E-2</v>
+      </c>
+      <c r="S25" s="12">
+        <v>3695.5599180596355</v>
+      </c>
+      <c r="T25" s="12">
+        <v>4.2014420927590605E-2</v>
+      </c>
+      <c r="U25" s="12">
+        <v>14072.953165546782</v>
+      </c>
+      <c r="V25" s="12">
+        <v>3.1559596855959313E-2</v>
+      </c>
+      <c r="W25" s="12">
+        <v>3405.0765604267713</v>
+      </c>
+      <c r="X25" s="12">
+        <v>4.637114024795206E-2</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>2000</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>5.679075599002046E-2</v>
+      </c>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>10005.670875936476</v>
+      </c>
+      <c r="B26" s="12">
+        <v>3.0916134121887245E-2</v>
+      </c>
+      <c r="C26" s="12">
+        <v>392845.84738972987</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1.3803803915509155E-2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2764250.6057976023</v>
+      </c>
+      <c r="F26" s="12">
+        <v>9.9959387460311858E-3</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1668520.8972675365</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1.0920749332106856E-2</v>
+      </c>
+      <c r="I26" s="12">
+        <v>23635.052244907962</v>
+      </c>
+      <c r="J26" s="12">
+        <v>2.5239868092557471E-2</v>
+      </c>
+      <c r="K26" s="12">
+        <v>19260.748000663243</v>
+      </c>
+      <c r="L26" s="12">
+        <v>2.6587227860841642E-2</v>
+      </c>
+      <c r="M26" s="12">
+        <v>25303.719956268713</v>
+      </c>
+      <c r="N26" s="12">
+        <v>2.4849054378691459E-2</v>
+      </c>
+      <c r="O26" s="12">
+        <v>92493.812971770923</v>
+      </c>
+      <c r="P26" s="12">
+        <v>1.915680713801083E-2</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>22998.814177881806</v>
+      </c>
+      <c r="R26" s="12">
+        <v>2.617418097288135E-2</v>
+      </c>
+      <c r="S26" s="12">
+        <v>3268.5128568731684</v>
+      </c>
+      <c r="T26" s="12">
+        <v>4.3571679626328859E-2</v>
+      </c>
+      <c r="U26" s="12">
+        <v>9736.325641094556</v>
+      </c>
+      <c r="V26" s="12">
+        <v>3.3944457411627972E-2</v>
+      </c>
+      <c r="W26" s="12">
+        <v>2700.1776693996658</v>
+      </c>
+      <c r="X26" s="12">
+        <v>4.9356926100359688E-2</v>
+      </c>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>8379.4192095488779</v>
+      </c>
+      <c r="B27" s="12">
+        <v>3.2397473281587423E-2</v>
+      </c>
+      <c r="C27" s="12">
+        <v>347449.84019545972</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1.4094241234506883E-2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2444822.6642237087</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1.0206257124069066E-2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1475711.9693905322</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1.1150526078928049E-2</v>
+      </c>
+      <c r="I27" s="12">
+        <v>14660.943694689757</v>
+      </c>
+      <c r="J27" s="12">
+        <v>2.8153188087606858E-2</v>
+      </c>
+      <c r="K27" s="12">
+        <v>16351.831949819896</v>
+      </c>
+      <c r="L27" s="12">
+        <v>2.7716720286457167E-2</v>
+      </c>
+      <c r="M27" s="12">
+        <v>20620.583720607006</v>
+      </c>
+      <c r="N27" s="12">
+        <v>2.6040031767845383E-2</v>
+      </c>
+      <c r="O27" s="12">
+        <v>84068.58836637222</v>
+      </c>
+      <c r="P27" s="12">
+        <v>1.9559617626994156E-2</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>17746.788851357724</v>
+      </c>
+      <c r="R27" s="12">
+        <v>2.7715631744371402E-2</v>
+      </c>
+      <c r="S27" s="12">
+        <v>2930.5268735051359</v>
+      </c>
+      <c r="T27" s="12">
+        <v>4.4952416701315598E-2</v>
+      </c>
+      <c r="U27" s="12">
+        <v>7512.9314930827049</v>
+      </c>
+      <c r="V27" s="12">
+        <v>3.5943515572002774E-2</v>
+      </c>
+      <c r="W27" s="12">
+        <v>2230.6656775092292</v>
+      </c>
+      <c r="X27" s="12">
+        <v>5.1991367236198176E-2</v>
+      </c>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>7211.6185178727492</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3.377357849673393E-2</v>
+      </c>
+      <c r="C28" s="12">
+        <v>303135.29431717581</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1.4465777999742409E-2</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2192011.7289414783</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1.036697969726209E-2</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1323113.5299829594</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1.1326118484848817E-2</v>
+      </c>
+      <c r="I28" s="12">
+        <v>11008.423819640968</v>
+      </c>
+      <c r="J28" s="12">
+        <v>3.043703072546549E-2</v>
+      </c>
+      <c r="K28" s="12">
+        <v>13508.544533283135</v>
+      </c>
+      <c r="L28" s="12">
+        <v>2.8894574667986804E-2</v>
+      </c>
+      <c r="M28" s="12">
+        <v>17269.058465246912</v>
+      </c>
+      <c r="N28" s="12">
+        <v>2.7429746936154083E-2</v>
+      </c>
+      <c r="O28" s="12">
+        <v>73346.28866985091</v>
+      </c>
+      <c r="P28" s="12">
+        <v>2.0075226586814227E-2</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>14072.953165546782</v>
+      </c>
+      <c r="R28" s="12">
+        <v>2.9195535443042261E-2</v>
+      </c>
+      <c r="S28" s="12">
+        <v>2663.5863471266525</v>
+      </c>
+      <c r="T28" s="12">
+        <v>4.6376604195595514E-2</v>
+      </c>
+      <c r="U28" s="12">
+        <v>6378.2669925990176</v>
+      </c>
+      <c r="V28" s="12">
+        <v>3.7276489006333645E-2</v>
+      </c>
+      <c r="W28" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="X28" s="12">
+        <v>5.3638563548696783E-2</v>
+      </c>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>5564.7682581961844</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3.6135779485118764E-2</v>
+      </c>
+      <c r="C29" s="12">
+        <v>268105.95114581293</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1.4847011619944337E-2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1992342.2531070593</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1.0530164313672062E-2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1235860.0814875271</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1.1444688628725112E-2</v>
+      </c>
+      <c r="I29" s="12">
+        <v>8043.3549535543598</v>
+      </c>
+      <c r="J29" s="12">
+        <v>3.3249976001075009E-2</v>
+      </c>
+      <c r="K29" s="12">
+        <v>10859.243716321336</v>
+      </c>
+      <c r="L29" s="12">
+        <v>3.0595634137351668E-2</v>
+      </c>
+      <c r="M29" s="12">
+        <v>15273.501410143581</v>
+      </c>
+      <c r="N29" s="12">
+        <v>2.8299149723818588E-2</v>
+      </c>
+      <c r="O29" s="12">
+        <v>64870.62659972001</v>
+      </c>
+      <c r="P29" s="12">
+        <v>2.0497617039752732E-2</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>11468.373403114858</v>
+      </c>
+      <c r="R29" s="12">
+        <v>3.0754057449782424E-2</v>
+      </c>
+      <c r="S29" s="12">
+        <v>2355.7908446919173</v>
+      </c>
+      <c r="T29" s="12">
+        <v>4.8095546613628588E-2</v>
+      </c>
+      <c r="U29" s="12">
+        <v>4855.0250096710834</v>
+      </c>
+      <c r="V29" s="12">
+        <v>3.9883952602776704E-2</v>
+      </c>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>4724.3313392908003</v>
+      </c>
+      <c r="B30" s="12">
+        <v>3.8064039527303341E-2</v>
+      </c>
+      <c r="C30" s="12">
+        <v>240382.01138700545</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1.5080814265005746E-2</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1810860.5903457226</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1.0640541123626539E-2</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1138717.3496702025</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1.1624761159121134E-2</v>
+      </c>
+      <c r="I30" s="12">
+        <v>5641.2148989930756</v>
+      </c>
+      <c r="J30" s="12">
+        <v>3.6702663752770641E-2</v>
+      </c>
+      <c r="K30" s="12">
+        <v>8043.3549535543598</v>
+      </c>
+      <c r="L30" s="12">
+        <v>3.3249976001075009E-2</v>
+      </c>
+      <c r="M30" s="12">
+        <v>11785.63392226585</v>
+      </c>
+      <c r="N30" s="12">
+        <v>3.0121694657411394E-2</v>
+      </c>
+      <c r="O30" s="12">
+        <v>60592.697496419314</v>
+      </c>
+      <c r="P30" s="12">
+        <v>2.0819993485899448E-2</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>9870.0795288454156</v>
+      </c>
+      <c r="R30" s="12">
+        <v>3.1894369877764513E-2</v>
+      </c>
+      <c r="S30" s="12">
+        <v>2141.2027943979056</v>
+      </c>
+      <c r="T30" s="12">
+        <v>4.961931510137893E-2</v>
+      </c>
+      <c r="U30" s="12">
+        <v>4010.8240932642152</v>
+      </c>
+      <c r="V30" s="12">
+        <v>4.1795256217708493E-2</v>
+      </c>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>3956.4716117070934</v>
+      </c>
+      <c r="B31" s="12">
+        <v>4.0095456906890217E-2</v>
+      </c>
+      <c r="C31" s="12">
+        <v>215524.9115191632</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1.5398019578438038E-2</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1623605.5529107689</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1.0808102564492304E-2</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1049210.3611593326</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1.1746534604149346E-2</v>
+      </c>
+      <c r="I31" s="12">
+        <v>3849.9663319898159</v>
+      </c>
+      <c r="J31" s="12">
+        <v>4.0937204868929107E-2</v>
+      </c>
+      <c r="K31" s="12">
+        <v>6039.4925527615351</v>
+      </c>
+      <c r="L31" s="12">
+        <v>3.6134360294234509E-2</v>
+      </c>
+      <c r="M31" s="12">
+        <v>9604.3843124457999</v>
+      </c>
+      <c r="N31" s="12">
+        <v>3.1729657083566204E-2</v>
+      </c>
+      <c r="O31" s="12">
+        <v>53590.799551603224</v>
+      </c>
+      <c r="P31" s="12">
+        <v>2.125805411951949E-2</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>7310.6889525827719</v>
+      </c>
+      <c r="R31" s="12">
+        <v>3.430340546006231E-2</v>
+      </c>
+      <c r="S31" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="T31" s="12">
+        <v>5.0399373397489643E-2</v>
+      </c>
+      <c r="U31" s="12">
+        <v>3137.426165303677</v>
+      </c>
+      <c r="V31" s="12">
+        <v>4.4718218896574916E-2</v>
+      </c>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>3224.219768809106</v>
+      </c>
+      <c r="B32" s="12">
+        <v>4.2676599822623729E-2</v>
+      </c>
+      <c r="C32" s="12">
+        <v>190619.54342407428</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1.5803821654754472E-2</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1516535.9929088983</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1.0978087089404292E-2</v>
+      </c>
+      <c r="G32" s="12">
+        <v>953638.20701128384</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1.1931434526740186E-2</v>
+      </c>
+      <c r="I32" s="12">
+        <v>2627.4908903223672</v>
+      </c>
+      <c r="J32" s="12">
+        <v>4.6136798479129153E-2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>4597.1558455302966</v>
+      </c>
+      <c r="L32" s="12">
+        <v>3.9268703445120019E-2</v>
+      </c>
+      <c r="M32" s="12">
+        <v>7616.1412492728969</v>
+      </c>
+      <c r="N32" s="12">
+        <v>3.394845711353503E-2</v>
+      </c>
+      <c r="O32" s="12">
+        <v>42496.747919340844</v>
+      </c>
+      <c r="P32" s="12">
+        <v>2.2277211968028746E-2</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>5876.9138951063269</v>
+      </c>
+      <c r="R32" s="12">
+        <v>3.6511924368370779E-2</v>
+      </c>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="12">
+        <v>2522.1129698356676</v>
+      </c>
+      <c r="V32" s="12">
+        <v>4.7597263430329599E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>2663.5863471266525</v>
+      </c>
+      <c r="B33" s="12">
+        <v>4.5188432626630866E-2</v>
+      </c>
+      <c r="C33" s="12">
+        <v>166307.49165392047</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1.630484028022787E-2</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1397331.1966239105</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1.1093086397037171E-2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>866771.68234101299</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1.2119244923145324E-2</v>
+      </c>
+      <c r="I33" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="J33" s="12">
+        <v>5.0138438414019437E-2</v>
+      </c>
+      <c r="K33" s="12">
+        <v>3499.274431331155</v>
+      </c>
+      <c r="L33" s="12">
+        <v>4.2453980911964458E-2</v>
+      </c>
+      <c r="M33" s="12">
+        <v>6122.4607728839892</v>
+      </c>
+      <c r="N33" s="12">
+        <v>3.5947044914423729E-2</v>
+      </c>
+      <c r="O33" s="12">
+        <v>34162.269789329737</v>
+      </c>
+      <c r="P33" s="12">
+        <v>2.3466572231195422E-2</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>4789.232381731932</v>
+      </c>
+      <c r="R33" s="12">
+        <v>3.8661173599925013E-2</v>
+      </c>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="12">
+        <v>2200.4369234483015</v>
+      </c>
+      <c r="V33" s="12">
+        <v>4.9618665512498897E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>2323.8664632029381</v>
+      </c>
+      <c r="B34" s="12">
+        <v>4.7107534382032072E-2</v>
+      </c>
+      <c r="C34" s="12">
+        <v>149110.19013805798</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1.66477913888795E-2</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1323113.5299829594</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1.1209143616812807E-2</v>
+      </c>
+      <c r="G34" s="12">
+        <v>777141.7214872418</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1.2310092185322457E-2</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12">
+        <v>2774.875251967128</v>
+      </c>
+      <c r="L34" s="12">
+        <v>4.5422714354991497E-2</v>
+      </c>
+      <c r="M34" s="12">
+        <v>4921.7214713660678</v>
+      </c>
+      <c r="N34" s="12">
+        <v>3.826138447711664E-2</v>
+      </c>
+      <c r="O34" s="12">
+        <v>28222.069809876968</v>
+      </c>
+      <c r="P34" s="12">
+        <v>2.433715399809145E-2</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>4235.8040354716068</v>
+      </c>
+      <c r="R34" s="12">
+        <v>3.988656339956087E-2</v>
+      </c>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="V34" s="12">
+        <v>5.0925324375887863E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>2083.5632041443137</v>
+      </c>
+      <c r="B35" s="12">
+        <v>4.8853248843176898E-2</v>
+      </c>
+      <c r="C35" s="12">
+        <v>133691.20405757535</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1.6997956028047469E-2</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1219112.3855716069</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1.1326563322504073E-2</v>
+      </c>
+      <c r="G35" s="12">
+        <v>725892.68379482953</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1.2438963290061179E-2</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="L35" s="12">
+        <v>5.0138438414019437E-2</v>
+      </c>
+      <c r="M35" s="12">
+        <v>4293.9938781678929</v>
+      </c>
+      <c r="N35" s="12">
+        <v>3.9886302312192035E-2</v>
+      </c>
+      <c r="O35" s="12">
+        <v>24288.891170604587</v>
+      </c>
+      <c r="P35" s="12">
+        <v>2.5108863852064144E-2</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>3695.5599180596355</v>
+      </c>
+      <c r="R35" s="12">
+        <v>4.1580500750065655E-2</v>
+      </c>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>1972.8971002999599</v>
+      </c>
+      <c r="B36" s="12">
+        <v>5.0139094807570492E-2</v>
+      </c>
+      <c r="C36" s="12">
+        <v>119866.64376066925</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1.7445808910206445E-2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1138717.3496702025</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1.1504701943392696E-2</v>
+      </c>
+      <c r="G36" s="12">
+        <v>668835.0934038813</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1.2634679894313966E-2</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="12">
+        <v>3596.0781875146072</v>
+      </c>
+      <c r="N36" s="12">
+        <v>4.2014970964564656E-2</v>
+      </c>
+      <c r="O36" s="12">
+        <v>17746.788851357724</v>
+      </c>
+      <c r="P36" s="12">
+        <v>2.7146100232100536E-2</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>3313.4144263035541</v>
+      </c>
+      <c r="R36" s="12">
+        <v>4.2898139626383787E-2</v>
+      </c>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12">
+        <v>106015.2385373017</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1.7905578781436837E-2</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1078235.6651130384</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1.1625065535102766E-2</v>
+      </c>
+      <c r="G37" s="12">
+        <v>607911.17098303419</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1.2833559939633329E-2</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="12">
+        <v>2970.7853218088035</v>
+      </c>
+      <c r="N37" s="12">
+        <v>4.4719389772396555E-2</v>
+      </c>
+      <c r="O37" s="12">
+        <v>14660.943694689757</v>
+      </c>
+      <c r="P37" s="12">
+        <v>2.8446985327959917E-2</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>2083.5632041443137</v>
+      </c>
+      <c r="R37" s="12">
+        <v>4.936306498363472E-2</v>
+      </c>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12">
+        <v>95052.557275798274</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1.8377345213280716E-2</v>
+      </c>
+      <c r="E38" s="12">
+        <v>980019.60758169566</v>
+      </c>
+      <c r="F38" s="12">
+        <v>1.1869505973372177E-2</v>
+      </c>
+      <c r="G38" s="12">
+        <v>552536.78440405114</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1.3035570517166971E-2</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12">
+        <v>2627.4908903223672</v>
+      </c>
+      <c r="N38" s="12">
+        <v>4.6618266653522547E-2</v>
+      </c>
+      <c r="O38" s="12">
+        <v>12446.727796505267</v>
+      </c>
+      <c r="P38" s="12">
+        <v>2.9655484936407232E-2</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>2000</v>
+      </c>
+      <c r="R38" s="12">
+        <v>4.9879180877705036E-2</v>
+      </c>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12">
+        <v>81805.52435426024</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1.8861911883483001E-2</v>
+      </c>
+      <c r="E39" s="12">
+        <v>915391.67625387956</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1.1993764697390113E-2</v>
+      </c>
+      <c r="G39" s="12">
+        <v>516099.44265874336</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1.3240587563229898E-2</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12">
+        <v>2292.3747033687</v>
+      </c>
+      <c r="N39" s="12">
+        <v>4.834648272098703E-2</v>
+      </c>
+      <c r="O39" s="12">
+        <v>10282.467264140176</v>
+      </c>
+      <c r="P39" s="12">
+        <v>3.1076623812135527E-2</v>
+      </c>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12">
+        <v>74353.891704437396</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1.9258521605249771E-2</v>
+      </c>
+      <c r="E40" s="12">
+        <v>843438.83187758899</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1.2119403583735143E-2</v>
+      </c>
+      <c r="G40" s="12">
+        <v>462731.32532798173</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1.3519086101453255E-2</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="N40" s="12">
+        <v>5.0138438414019437E-2</v>
+      </c>
+      <c r="O40" s="12">
+        <v>8849.4476141009072</v>
+      </c>
+      <c r="P40" s="12">
+        <v>3.2396625027209608E-2</v>
+      </c>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12">
+        <v>68509.427375817962</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1.9663342133843454E-2</v>
+      </c>
+      <c r="E41" s="12">
+        <v>798640.53194156196</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1.2246198258807977E-2</v>
+      </c>
+      <c r="G41" s="12">
+        <v>444173.06315218611</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1.3660435007008009E-2</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12">
+        <v>7720.7688613004066</v>
+      </c>
+      <c r="P41" s="12">
+        <v>3.3597621373121916E-2</v>
+      </c>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12">
+        <v>61425.09661269893</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2.0181421156579425E-2</v>
+      </c>
+      <c r="E42" s="12">
+        <v>756221.64305623493</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1.2374319475200747E-2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>409259.57626106677</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1.3803532848642554E-2</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12">
+        <v>6828.5815539844707</v>
+      </c>
+      <c r="P42" s="12">
+        <v>3.4662518754372929E-2</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12">
+        <v>55829.90901319703</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2.0605776220859944E-2</v>
+      </c>
+      <c r="E43" s="12">
+        <v>706352.19142694958</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1.2503862958478671E-2</v>
+      </c>
+      <c r="G43" s="12">
+        <v>382270.72870615066</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1.4020628028798608E-2</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="12">
+        <v>6206.5687784255224</v>
+      </c>
+      <c r="P43" s="12">
+        <v>3.5760700550876337E-2</v>
+      </c>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12">
+        <v>48709.234952866675</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2.1148962853959556E-2</v>
+      </c>
+      <c r="E44" s="12">
+        <v>642010.85148128367</v>
+      </c>
+      <c r="F44" s="12">
+        <v>1.2700683839787147E-2</v>
+      </c>
+      <c r="G44" s="12">
+        <v>357061.67552769638</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1.4167406281633816E-2</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12">
+        <v>5489.357580218255</v>
+      </c>
+      <c r="P44" s="12">
+        <v>3.708616596909077E-2</v>
+      </c>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12">
+        <v>43672.375868763629</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2.1706184201819866E-2</v>
+      </c>
+      <c r="E45" s="12">
+        <v>591546.65338679345</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1.2900518396321089E-2</v>
+      </c>
+      <c r="G45" s="12">
+        <v>333515.04720794101</v>
+      </c>
+      <c r="H45" s="12">
+        <v>1.4315721117242714E-2</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12">
+        <v>5057.8757326755303</v>
+      </c>
+      <c r="P45" s="12">
+        <v>3.7865729510823266E-2</v>
+      </c>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12">
+        <v>39694.276535157136</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2.2277941087358637E-2</v>
+      </c>
+      <c r="E46" s="12">
+        <v>537662.90420157276</v>
+      </c>
+      <c r="F46" s="12">
+        <v>1.3103582953932734E-2</v>
+      </c>
+      <c r="G46" s="12">
+        <v>299027.37157846551</v>
+      </c>
+      <c r="H46" s="12">
+        <v>1.4616833691418593E-2</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="12">
+        <v>4534.8577186368657</v>
+      </c>
+      <c r="P46" s="12">
+        <v>3.9268960489816221E-2</v>
+      </c>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12">
+        <v>35589.624151549171</v>
+      </c>
+      <c r="D47" s="12">
+        <v>2.2746528602665392E-2</v>
+      </c>
+      <c r="E47" s="12">
+        <v>502206.42865615193</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1.330966966617275E-2</v>
+      </c>
+      <c r="G47" s="12">
+        <v>283144.87082706776</v>
+      </c>
+      <c r="H47" s="12">
+        <v>1.4769756784184011E-2</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="12">
+        <v>4010.8240932642152</v>
+      </c>
+      <c r="P47" s="12">
+        <v>4.0936400980383668E-2</v>
+      </c>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C48" s="12">
+        <v>33242.646838182161</v>
+      </c>
+      <c r="D48" s="12">
+        <v>2.3104274824525258E-2</v>
+      </c>
+      <c r="E48" s="12">
+        <v>469088.14986613154</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1.3379374933836712E-2</v>
+      </c>
+      <c r="G48" s="12">
+        <v>260888.73790051651</v>
+      </c>
+      <c r="H48" s="12">
+        <v>1.4924475160004376E-2</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="12">
+        <v>3596.0781875146072</v>
+      </c>
+      <c r="P48" s="12">
+        <v>4.2014970964564656E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49" s="12">
+        <v>30214.587370300676</v>
+      </c>
+      <c r="D49" s="12">
+        <v>2.359008877946172E-2</v>
+      </c>
+      <c r="E49" s="12">
+        <v>438153.8741621495</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1.3519440077336851E-2</v>
+      </c>
+      <c r="G49" s="12">
+        <v>247031.92755615356</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1.5159100741592386E-2</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="12">
+        <v>3180.5269163066455</v>
+      </c>
+      <c r="P49" s="12">
+        <v>4.3572250050347254E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C50" s="12">
+        <v>27462.352633995462</v>
+      </c>
+      <c r="D50" s="12">
+        <v>2.4086117952170808E-2</v>
+      </c>
+      <c r="E50" s="12">
+        <v>409259.57626106677</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1.3732067186018455E-2</v>
+      </c>
+      <c r="G50" s="12">
+        <v>233911.10602627459</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1.5317697098223837E-2</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="12">
+        <v>2890.8139855446948</v>
+      </c>
+      <c r="P50" s="12">
+        <v>4.4952710950406614E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C51" s="12">
+        <v>24960.817864262382</v>
+      </c>
+      <c r="D51" s="12">
+        <v>2.4720564046288907E-2</v>
+      </c>
+      <c r="E51" s="12">
+        <v>377090.40609695873</v>
+      </c>
+      <c r="F51" s="12">
+        <v>1.3948129690292105E-2</v>
+      </c>
+      <c r="G51" s="12">
+        <v>206881.08821510492</v>
+      </c>
+      <c r="H51" s="12">
+        <v>1.5559013686973889E-2</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="12">
+        <v>2591.8845792907791</v>
+      </c>
+      <c r="P51" s="12">
+        <v>4.6618571806917926E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C52" s="12">
+        <v>22687.146900940304</v>
+      </c>
+      <c r="D52" s="12">
+        <v>2.5371721918001935E-2</v>
+      </c>
+      <c r="E52" s="12">
+        <v>347449.84019545972</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1.41675917559807E-2</v>
+      </c>
+      <c r="G52" s="12">
+        <v>153235.16712224425</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1.6561383200897145E-2</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12">
+        <v>2323.8664632029381</v>
+      </c>
+      <c r="P52" s="12">
+        <v>4.8095861436988741E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C53" s="12">
+        <v>20341.144914439057</v>
+      </c>
+      <c r="D53" s="12">
+        <v>2.6040202220431477E-2</v>
+      </c>
+      <c r="E53" s="12">
+        <v>315800.77255836217</v>
+      </c>
+      <c r="F53" s="12">
+        <v>1.4390601069557668E-2</v>
+      </c>
+      <c r="G53" s="12">
+        <v>111961.97209743981</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1.7812409018836583E-2</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="P53" s="12">
+        <v>5.0138438414019437E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C54" s="12">
+        <v>18488.278121203741</v>
+      </c>
+      <c r="D54" s="12">
+        <v>2.6587749967510049E-2</v>
+      </c>
+      <c r="E54" s="12">
+        <v>287034.60589406156</v>
+      </c>
+      <c r="F54" s="12">
+        <v>1.4617120729479923E-2</v>
+      </c>
+      <c r="G54" s="12">
+        <v>71371.86100862571</v>
+      </c>
+      <c r="H54" s="12">
+        <v>1.9765287731703121E-2</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C55" s="12">
+        <v>16576.467112586615</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2.7288269514296956E-2</v>
+      </c>
+      <c r="E55" s="12">
+        <v>264472.72679436853</v>
+      </c>
+      <c r="F55" s="12">
+        <v>1.4847108805368259E-2</v>
+      </c>
+      <c r="G55" s="12">
+        <v>40792.377053705517</v>
+      </c>
+      <c r="H55" s="12">
+        <v>2.2047568398276353E-2</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C56" s="12">
+        <v>15066.523321749808</v>
+      </c>
+      <c r="D56" s="12">
+        <v>2.786206039225347E-2</v>
+      </c>
+      <c r="E56" s="12">
+        <v>247031.92755615356</v>
+      </c>
+      <c r="F56" s="12">
+        <v>1.5080616835250256E-2</v>
+      </c>
+      <c r="G56" s="12">
+        <v>24622.562592759339</v>
+      </c>
+      <c r="H56" s="12">
+        <v>2.5108699495783766E-2</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C57" s="12">
+        <v>13508.544533283135</v>
+      </c>
+      <c r="D57" s="12">
+        <v>2.8596154775658664E-2</v>
+      </c>
+      <c r="E57" s="12">
+        <v>230741.27140359685</v>
+      </c>
+      <c r="F57" s="12">
+        <v>1.523849183102139E-2</v>
+      </c>
+      <c r="G57" s="12">
+        <v>13508.544533283135</v>
+      </c>
+      <c r="H57" s="12">
+        <v>2.8596154775658664E-2</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C58" s="12">
+        <v>12446.727796505267</v>
+      </c>
+      <c r="D58" s="12">
+        <v>2.934920644906662E-2</v>
+      </c>
+      <c r="E58" s="12">
+        <v>218485.70965651967</v>
+      </c>
+      <c r="F58" s="12">
+        <v>1.5397918786891351E-2</v>
+      </c>
+      <c r="G58" s="12">
+        <v>8611.2270514424163</v>
+      </c>
+      <c r="H58" s="12">
+        <v>3.256565279689453E-2</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C59" s="12">
+        <v>11468.373403114858</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2.9966136528750281E-2</v>
+      </c>
+      <c r="E59" s="12">
+        <v>206881.08821510492</v>
+      </c>
+      <c r="F59" s="12">
+        <v>1.5639987309361138E-2</v>
+      </c>
+      <c r="G59" s="12">
+        <v>5641.2148989930756</v>
+      </c>
+      <c r="H59" s="12">
+        <v>3.6512641371259862E-2</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C60" s="12">
+        <v>10566.920934046684</v>
+      </c>
+      <c r="D60" s="12">
+        <v>3.0596034683869951E-2</v>
+      </c>
+      <c r="E60" s="12">
+        <v>193238.20121697415</v>
+      </c>
+      <c r="F60" s="12">
+        <v>1.5803718206929898E-2</v>
+      </c>
+      <c r="G60" s="12">
+        <v>3547.3461142997517</v>
+      </c>
+      <c r="H60" s="12">
+        <v>4.2233905518509279E-2</v>
+      </c>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C61" s="12">
+        <v>9474.2309800953699</v>
+      </c>
+      <c r="D61" s="12">
+        <v>3.1402162331994068E-2</v>
+      </c>
+      <c r="E61" s="12">
+        <v>182974.57264067847</v>
+      </c>
+      <c r="F61" s="12">
+        <v>1.5969058629925592E-2</v>
+      </c>
+      <c r="G61" s="12">
+        <v>2627.4908903223672</v>
+      </c>
+      <c r="H61" s="12">
+        <v>4.6376907767119134E-2</v>
+      </c>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C62" s="12">
+        <v>8611.2270514424163</v>
+      </c>
+      <c r="D62" s="12">
+        <v>3.222931842572236E-2</v>
+      </c>
+      <c r="E62" s="12">
+        <v>173256.08509182319</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1.6136128864546524E-2</v>
+      </c>
+      <c r="G62" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="H62" s="12">
+        <v>5.0138438414019437E-2</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C63" s="12">
+        <v>7934.3558322753579</v>
+      </c>
+      <c r="D63" s="12">
+        <v>3.3250193648443775E-2</v>
+      </c>
+      <c r="E63" s="12">
+        <v>164053.78402108973</v>
+      </c>
+      <c r="F63" s="12">
+        <v>1.6304947008292419E-2</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C64" s="12">
+        <v>7113.8906311903211</v>
+      </c>
+      <c r="D64" s="12">
+        <v>3.3949568225479253E-2</v>
+      </c>
+      <c r="E64" s="12">
+        <v>151158.60843972774</v>
+      </c>
+      <c r="F64" s="12">
+        <v>1.6647682416642228E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="12">
+        <v>6465.8891653591709</v>
+      </c>
+      <c r="D65" s="12">
+        <v>3.5025162243576061E-2</v>
+      </c>
+      <c r="E65" s="12">
+        <v>139277.03674605646</v>
+      </c>
+      <c r="F65" s="12">
+        <v>1.6909619669392816E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="12">
+        <v>5797.2731911839064</v>
+      </c>
+      <c r="D66" s="12">
+        <v>3.6135069882709363E-2</v>
+      </c>
+      <c r="E66" s="12">
+        <v>130092.33605565174</v>
+      </c>
+      <c r="F66" s="12">
+        <v>1.7086642012905773E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="12">
+        <v>5197.7965587897215</v>
+      </c>
+      <c r="D67" s="12">
+        <v>3.7280149235219461E-2</v>
+      </c>
+      <c r="E67" s="12">
+        <v>123182.62871264757</v>
+      </c>
+      <c r="F67" s="12">
+        <v>1.7355258716453756E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="12">
+        <v>4724.3313392908003</v>
+      </c>
+      <c r="D68" s="12">
+        <v>3.8461263093423542E-2</v>
+      </c>
+      <c r="E68" s="12">
+        <v>115059.28260035344</v>
+      </c>
+      <c r="F68" s="12">
+        <v>1.7628213695372357E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="12">
+        <v>4178.402749510401</v>
+      </c>
+      <c r="D69" s="12">
+        <v>3.9680316605960546E-2</v>
+      </c>
+      <c r="E69" s="12">
+        <v>108948.03889477218</v>
+      </c>
+      <c r="F69" s="12">
+        <v>1.7905344371412373E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="12">
+        <v>3849.9663319898159</v>
+      </c>
+      <c r="D70" s="12">
+        <v>4.0937204868929107E-2</v>
+      </c>
+      <c r="E70" s="12">
+        <v>100384.35900664148</v>
+      </c>
+      <c r="F70" s="12">
+        <v>1.8187069875108458E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="12">
+        <v>3451.8541893635133</v>
+      </c>
+      <c r="D71" s="12">
+        <v>4.2015796033527404E-2</v>
+      </c>
+      <c r="E71" s="12">
+        <v>92493.812971770923</v>
+      </c>
+      <c r="F71" s="12">
+        <v>1.8473228092176955E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="12">
+        <v>3137.426165303677</v>
+      </c>
+      <c r="D72" s="12">
+        <v>4.3346945183321932E-2</v>
+      </c>
+      <c r="E72" s="12">
+        <v>86394.257670282619</v>
+      </c>
+      <c r="F72" s="12">
+        <v>1.876376594395085E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="12">
+        <v>2930.5268735051359</v>
+      </c>
+      <c r="D73" s="12">
+        <v>4.425782268374516E-2</v>
+      </c>
+      <c r="E73" s="12">
+        <v>79603.380345950311</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1.9058997987643621E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="12">
+        <v>2627.4908903223672</v>
+      </c>
+      <c r="D74" s="12">
+        <v>4.5897932319949493E-2</v>
+      </c>
+      <c r="E74" s="12">
+        <v>75375.336801024881</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1.9358621822947342E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="12">
+        <v>2355.7908446919173</v>
+      </c>
+      <c r="D75" s="12">
+        <v>4.7352385702579533E-2</v>
+      </c>
+      <c r="E75" s="12">
+        <v>69450.583474831757</v>
+      </c>
+      <c r="F75" s="12">
+        <v>1.9765546491405508E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="12">
+        <v>2170.6178128320594</v>
+      </c>
+      <c r="D76" s="12">
+        <v>4.8599364311169943E-2</v>
+      </c>
+      <c r="E76" s="12">
+        <v>64870.62659972001</v>
+      </c>
+      <c r="F76" s="12">
+        <v>1.9972466778740892E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="12">
+        <v>2027.4752288864124</v>
+      </c>
+      <c r="D77" s="12">
+        <v>4.9878854381186263E-2</v>
+      </c>
+      <c r="E77" s="12">
+        <v>60592.697496419314</v>
+      </c>
+      <c r="F77" s="12">
+        <v>2.0286583919695716E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12">
+        <v>56596.878777619604</v>
+      </c>
+      <c r="F78" s="12">
+        <v>2.0605641340653732E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12">
+        <v>52864.566519057174</v>
+      </c>
+      <c r="F79" s="12">
+        <v>2.0929716739910682E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="12">
+        <v>49378.383642472683</v>
+      </c>
+      <c r="F80" s="12">
+        <v>2.1258889037762886E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="12">
+        <v>45497.077698857975</v>
+      </c>
+      <c r="F81" s="12">
+        <v>2.1593379740535698E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="12">
+        <v>42496.747919340844</v>
+      </c>
+      <c r="F82" s="12">
+        <v>2.1932989803868916E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="12">
+        <v>39694.276535157136</v>
+      </c>
+      <c r="F83" s="12">
+        <v>2.2277941087358637E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="12">
+        <v>36574.173767943998</v>
+      </c>
+      <c r="F84" s="12">
+        <v>2.2746230817578893E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="12">
+        <v>33699.321503516767</v>
+      </c>
+      <c r="F85" s="12">
+        <v>2.3104123589778296E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="12">
+        <v>31050.442232894435</v>
+      </c>
+      <c r="F86" s="12">
+        <v>2.3589779950947694E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="12">
+        <v>27839.619846184658</v>
+      </c>
+      <c r="F87" s="12">
+        <v>2.4085960290526742E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="12">
+        <v>26360.949914426823</v>
+      </c>
+      <c r="F88" s="12">
+        <v>2.4591933237329801E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="12">
+        <v>24288.891170604587</v>
+      </c>
+      <c r="F89" s="12">
+        <v>2.4978866581611563E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="12">
+        <v>22379.703167472173</v>
+      </c>
+      <c r="F90" s="12">
+        <v>2.5503930663917995E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="12">
+        <v>20620.583720607006</v>
+      </c>
+      <c r="F91" s="12">
+        <v>2.590521351910809E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="12">
+        <v>18742.262957751602</v>
+      </c>
+      <c r="F92" s="12">
+        <v>2.6587575930814723E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="12">
+        <v>17269.058465246912</v>
+      </c>
+      <c r="F93" s="12">
+        <v>2.7146455618620197E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="12">
+        <v>15911.652768310725</v>
+      </c>
+      <c r="F94" s="12">
+        <v>2.7717083143319655E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="12">
+        <v>14660.943694689757</v>
+      </c>
+      <c r="F95" s="12">
+        <v>2.8299705448351371E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="12">
+        <v>13694.119709770255</v>
+      </c>
+      <c r="F96" s="12">
+        <v>2.8894385531399683E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="12">
+        <v>12446.727796505267</v>
+      </c>
+      <c r="F97" s="12">
+        <v>2.9501948236443663E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="12">
+        <v>11468.373403114858</v>
+      </c>
+      <c r="F98" s="12">
+        <v>3.027885309174819E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="12">
+        <v>10566.920934046684</v>
+      </c>
+      <c r="F99" s="12">
+        <v>3.0915324653016454E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="12">
+        <v>9736.325641094556</v>
+      </c>
+      <c r="F100" s="12">
+        <v>3.1565175058162184E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="12">
+        <v>8971.0179134587743</v>
+      </c>
+      <c r="F101" s="12">
+        <v>3.2228685534932841E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="12">
+        <v>8379.4192095488779</v>
+      </c>
+      <c r="F102" s="12">
+        <v>3.2735562460508238E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="12">
+        <v>7826.8338071220633</v>
+      </c>
+      <c r="F103" s="12">
+        <v>3.3423456086757355E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="12">
+        <v>7310.6889525827719</v>
+      </c>
+      <c r="F104" s="12">
+        <v>3.3949123776337714E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="12">
+        <v>6736.0443735088775</v>
+      </c>
+      <c r="F105" s="12">
+        <v>3.4662745647950279E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="12">
+        <v>6378.2669925990176</v>
+      </c>
+      <c r="F106" s="12">
+        <v>3.539090476422501E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="12">
+        <v>6039.4925527615351</v>
+      </c>
+      <c r="F107" s="12">
+        <v>3.5947280216239885E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="12">
+        <v>5414.9688262610998</v>
+      </c>
+      <c r="F108" s="12">
+        <v>3.7086408727354428E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="12">
+        <v>4855.0250096710834</v>
+      </c>
+      <c r="F109" s="12">
+        <v>3.8063541213758406E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="12">
+        <v>4352.9831104876503</v>
+      </c>
+      <c r="F110" s="12">
+        <v>3.9269731634000202E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="12">
+        <v>4065.9232482570014</v>
+      </c>
+      <c r="F111" s="12">
+        <v>4.0094931999142241E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="12">
+        <v>3695.5599180596355</v>
+      </c>
+      <c r="F112" s="12">
+        <v>4.1365224119732737E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="12">
+        <v>3405.0765604267713</v>
+      </c>
+      <c r="F113" s="12">
+        <v>4.2454536703492265E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="12">
+        <v>3052.9689811956891</v>
+      </c>
+      <c r="F114" s="12">
+        <v>4.3799872787173469E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="12">
+        <v>2851.6392647938492</v>
+      </c>
+      <c r="F115" s="12">
+        <v>4.4720267949381741E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="12">
+        <v>2700.1776693996658</v>
+      </c>
+      <c r="F116" s="12">
+        <v>4.5659705093811086E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="12">
+        <v>2522.1129698356676</v>
+      </c>
+      <c r="F117" s="12">
+        <v>4.661918211970114E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="12">
+        <v>2388.1537910251295</v>
+      </c>
+      <c r="F118" s="12">
+        <v>4.7598509689377955E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="12">
+        <v>2230.6656775092292</v>
+      </c>
+      <c r="F119" s="12">
+        <v>4.8598728074926691E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="12">
+        <v>2112.1863921108998</v>
+      </c>
+      <c r="F120" s="12">
+        <v>4.9362741865480238E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="12">
+        <v>2000</v>
+      </c>
+      <c r="F121" s="12">
+        <v>5.0138766609720817E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>